--- a/teaching/traditional_assets/database/data/germany/germany_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/germany/germany_reinsurance.xlsx
@@ -591,49 +591,49 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.04895</v>
+        <v>0.04132999999999999</v>
       </c>
       <c r="E2">
-        <v>0.008150000000000001</v>
+        <v>-0.09745000000000001</v>
       </c>
       <c r="F2">
-        <v>0.07095000000000001</v>
+        <v>0.09960000000000001</v>
       </c>
       <c r="G2">
-        <v>0.0817044748012731</v>
+        <v>0.07598466291014208</v>
       </c>
       <c r="H2">
-        <v>0.0817044748012731</v>
+        <v>0.07598466291014208</v>
       </c>
       <c r="I2">
-        <v>0.07638013844528173</v>
+        <v>0.04995108215559357</v>
       </c>
       <c r="J2">
-        <v>0.06168190245344276</v>
+        <v>0.0406194526638052</v>
       </c>
       <c r="K2">
-        <v>4472</v>
+        <v>2546.7</v>
       </c>
       <c r="L2">
-        <v>0.0533677662033584</v>
+        <v>0.02687790169360226</v>
       </c>
       <c r="M2">
-        <v>1889.35</v>
+        <v>2142.15</v>
       </c>
       <c r="N2">
-        <v>0.02904784087991427</v>
+        <v>0.03521442802753831</v>
       </c>
       <c r="O2">
-        <v>0.4224843470483005</v>
+        <v>0.8411473671810578</v>
       </c>
       <c r="P2">
-        <v>1889.35</v>
+        <v>2142.15</v>
       </c>
       <c r="Q2">
-        <v>0.02904784087991427</v>
+        <v>0.03521442802753831</v>
       </c>
       <c r="R2">
-        <v>0.4224843470483005</v>
+        <v>0.8411473671810578</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,73 +642,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>6800.9</v>
+        <v>8115.700000000001</v>
       </c>
       <c r="V2">
-        <v>0.1045605425359033</v>
+        <v>0.1334125684677043</v>
       </c>
       <c r="W2">
-        <v>0.1232399948972338</v>
+        <v>0.06849407011234906</v>
       </c>
       <c r="X2">
-        <v>0.07118497286498152</v>
+        <v>0.07582208041715149</v>
       </c>
       <c r="Y2">
-        <v>0.05205502203225226</v>
+        <v>-0.007328010304802429</v>
       </c>
       <c r="Z2">
-        <v>2.131940619341597</v>
+        <v>2.197341873721609</v>
       </c>
       <c r="AA2">
-        <v>0.1345401579937139</v>
+        <v>0.09302589993455763</v>
       </c>
       <c r="AB2">
-        <v>0.06549712411336514</v>
+        <v>0.0662963701743231</v>
       </c>
       <c r="AC2">
-        <v>0.0690430338803488</v>
+        <v>0.02672952976023453</v>
       </c>
       <c r="AD2">
-        <v>7278</v>
+        <v>10231.9</v>
       </c>
       <c r="AE2">
-        <v>656.7877842650828</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>7934.787784265083</v>
+        <v>10231.9</v>
       </c>
       <c r="AG2">
-        <v>1133.887784265084</v>
+        <v>2116.199999999999</v>
       </c>
       <c r="AH2">
-        <v>0.1087292537079624</v>
+        <v>0.1439824945295405</v>
       </c>
       <c r="AI2">
-        <v>0.144353675843292</v>
+        <v>0.1742822200419699</v>
       </c>
       <c r="AJ2">
-        <v>0.01713427395140929</v>
+        <v>0.03361833137933334</v>
       </c>
       <c r="AK2">
-        <v>0.02354086366198364</v>
+        <v>0.04182783818346769</v>
       </c>
       <c r="AL2">
-        <v>603.1</v>
+        <v>672.7</v>
       </c>
       <c r="AM2">
-        <v>603.1</v>
+        <v>672.7</v>
       </c>
       <c r="AN2">
-        <v>1.033850874327031</v>
+        <v>1.984926670287887</v>
       </c>
       <c r="AO2">
-        <v>10.61946609185873</v>
+        <v>7.035677122045487</v>
       </c>
       <c r="AP2">
-        <v>0.161070469517889</v>
+        <v>0.4105299914642661</v>
       </c>
       <c r="AQ2">
-        <v>10.61946609185873</v>
+        <v>7.035677122045487</v>
       </c>
     </row>
     <row r="3">
@@ -728,49 +728,49 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.08650000000000001</v>
+        <v>0.07519999999999999</v>
       </c>
       <c r="E3">
-        <v>0.0684</v>
+        <v>-0.0249</v>
       </c>
       <c r="F3">
-        <v>0.0379</v>
+        <v>0.0762</v>
       </c>
       <c r="G3">
-        <v>0.090616833009786</v>
+        <v>0.08288043478260869</v>
       </c>
       <c r="H3">
-        <v>0.090616833009786</v>
+        <v>0.08288043478260869</v>
       </c>
       <c r="I3">
-        <v>0.09197061799010561</v>
+        <v>0.06125701743908265</v>
       </c>
       <c r="J3">
-        <v>0.07472582605564911</v>
+        <v>0.04824886597644338</v>
       </c>
       <c r="K3">
-        <v>1458.2</v>
+        <v>1114.1</v>
       </c>
       <c r="L3">
-        <v>0.06448246432503903</v>
+        <v>0.04158579192546583</v>
       </c>
       <c r="M3">
-        <v>460.2</v>
+        <v>531</v>
       </c>
       <c r="N3">
-        <v>0.01974446322690258</v>
+        <v>0.02762488424601234</v>
       </c>
       <c r="O3">
-        <v>0.3155945686462762</v>
+        <v>0.4766178978547707</v>
       </c>
       <c r="P3">
-        <v>460.2</v>
+        <v>531</v>
       </c>
       <c r="Q3">
-        <v>0.01974446322690258</v>
+        <v>0.02762488424601234</v>
       </c>
       <c r="R3">
-        <v>0.3155945686462762</v>
+        <v>0.4766178978547707</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -779,73 +779,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1549.6</v>
+        <v>1578.6</v>
       </c>
       <c r="V3">
-        <v>0.0664841812612087</v>
+        <v>0.08212550333475532</v>
       </c>
       <c r="W3">
-        <v>0.1502462546623529</v>
+        <v>0.09522466388027043</v>
       </c>
       <c r="X3">
-        <v>0.07141471868693854</v>
+        <v>0.07708596959357696</v>
       </c>
       <c r="Y3">
-        <v>0.07883153597541438</v>
+        <v>0.01813869428669347</v>
       </c>
       <c r="Z3">
-        <v>1.912004097634766</v>
+        <v>2.07814451382694</v>
       </c>
       <c r="AA3">
-        <v>0.1428760856175439</v>
+        <v>0.1002681161273171</v>
       </c>
       <c r="AB3">
-        <v>0.06542134918385288</v>
+        <v>0.0659915570069101</v>
       </c>
       <c r="AC3">
-        <v>0.07745473643369101</v>
+        <v>0.03427655912040702</v>
       </c>
       <c r="AD3">
-        <v>2835.7</v>
+        <v>4036.5</v>
       </c>
       <c r="AE3">
-        <v>212.9282091677526</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3048.628209167753</v>
+        <v>4036.5</v>
       </c>
       <c r="AG3">
-        <v>1499.028209167753</v>
+        <v>2457.9</v>
       </c>
       <c r="AH3">
-        <v>0.1156692471746731</v>
+        <v>0.1735509474037225</v>
       </c>
       <c r="AI3">
-        <v>0.1948126214880077</v>
+        <v>0.2279439584827454</v>
       </c>
       <c r="AJ3">
-        <v>0.06042804813772053</v>
+        <v>0.1133733400369931</v>
       </c>
       <c r="AK3">
-        <v>0.1063183688678277</v>
+        <v>0.1523834913234592</v>
       </c>
       <c r="AL3">
-        <v>243.3</v>
+        <v>233.5</v>
       </c>
       <c r="AM3">
-        <v>243.3</v>
+        <v>233.5</v>
       </c>
       <c r="AN3">
-        <v>1.267295316410439</v>
+        <v>2.238520408163265</v>
       </c>
       <c r="AO3">
-        <v>8.648170982326345</v>
+        <v>7.028265524625267</v>
       </c>
       <c r="AP3">
-        <v>0.6699268006648876</v>
+        <v>1.363076752440106</v>
       </c>
       <c r="AQ3">
-        <v>8.648170982326345</v>
+        <v>7.028265524625267</v>
       </c>
     </row>
     <row r="4">
@@ -856,7 +856,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Münchener Rückversicherungs-Gesellschaft Aktiengesellschaft (XTRA:MUV2)</t>
+          <t>Münchener Rückversicherungs-Gesellschaft Aktiengesellschaft in München (XTRA:MUV2)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -865,49 +865,49 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0114</v>
+        <v>0.00746</v>
       </c>
       <c r="E4">
-        <v>-0.0521</v>
+        <v>-0.17</v>
       </c>
       <c r="F4">
-        <v>0.104</v>
+        <v>0.123</v>
       </c>
       <c r="G4">
-        <v>0.07841031675983133</v>
+        <v>0.07326630400395524</v>
       </c>
       <c r="H4">
-        <v>0.07841031675983133</v>
+        <v>0.07326630400395524</v>
       </c>
       <c r="I4">
-        <v>0.07061763402602945</v>
+        <v>0.0454942076477002</v>
       </c>
       <c r="J4">
-        <v>0.05668001829036044</v>
+        <v>0.0381570351249066</v>
       </c>
       <c r="K4">
-        <v>3013.8</v>
+        <v>1432.6</v>
       </c>
       <c r="L4">
-        <v>0.04925958615279004</v>
+        <v>0.02107995403198632</v>
       </c>
       <c r="M4">
-        <v>1429.15</v>
+        <v>1611.15</v>
       </c>
       <c r="N4">
-        <v>0.03424352280705117</v>
+        <v>0.03872044566424255</v>
       </c>
       <c r="O4">
-        <v>0.474202004114407</v>
+        <v>1.124633533435711</v>
       </c>
       <c r="P4">
-        <v>1429.15</v>
+        <v>1611.15</v>
       </c>
       <c r="Q4">
-        <v>0.03424352280705117</v>
+        <v>0.03872044566424255</v>
       </c>
       <c r="R4">
-        <v>0.474202004114407</v>
+        <v>1.124633533435711</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -916,73 +916,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>5251.3</v>
+        <v>6537.1</v>
       </c>
       <c r="V4">
-        <v>0.1258251487364292</v>
+        <v>0.1571048166537691</v>
       </c>
       <c r="W4">
-        <v>0.09623373513211464</v>
+        <v>0.0417634763444277</v>
       </c>
       <c r="X4">
-        <v>0.0709552270430245</v>
+        <v>0.07455819124072605</v>
       </c>
       <c r="Y4">
-        <v>0.02527850808909014</v>
+        <v>-0.03279471489629834</v>
       </c>
       <c r="Z4">
-        <v>2.226608850465871</v>
+        <v>2.248174771991227</v>
       </c>
       <c r="AA4">
-        <v>0.126204230369884</v>
+        <v>0.08578368374179815</v>
       </c>
       <c r="AB4">
-        <v>0.06557289904287741</v>
+        <v>0.06660118334173611</v>
       </c>
       <c r="AC4">
-        <v>0.06063133132700657</v>
+        <v>0.01918250040006204</v>
       </c>
       <c r="AD4">
-        <v>4442.3</v>
+        <v>6195.4</v>
       </c>
       <c r="AE4">
-        <v>443.8595750973302</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>4886.15957509733</v>
+        <v>6195.4</v>
       </c>
       <c r="AG4">
-        <v>-365.14042490267</v>
+        <v>-341.7000000000007</v>
       </c>
       <c r="AH4">
-        <v>0.1048058456763877</v>
+        <v>0.1295967802665819</v>
       </c>
       <c r="AI4">
-        <v>0.1242707566305746</v>
+        <v>0.1511054743234838</v>
       </c>
       <c r="AJ4">
-        <v>-0.008826264127540822</v>
+        <v>-0.008280003198596512</v>
       </c>
       <c r="AK4">
-        <v>-0.01071818977040949</v>
+        <v>-0.009914866205888008</v>
       </c>
       <c r="AL4">
-        <v>359.8</v>
+        <v>439.2</v>
       </c>
       <c r="AM4">
-        <v>359.8</v>
+        <v>439.2</v>
       </c>
       <c r="AN4">
-        <v>0.9250744465962808</v>
+        <v>1.848490273302303</v>
       </c>
       <c r="AO4">
-        <v>11.95247359644247</v>
+        <v>7.039617486338798</v>
       </c>
       <c r="AP4">
-        <v>-0.07603765538049395</v>
+        <v>-0.1019513068385251</v>
       </c>
       <c r="AQ4">
-        <v>11.95247359644247</v>
+        <v>7.039617486338798</v>
       </c>
     </row>
   </sheetData>
